--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Parker.Spring.041920.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Parker.Spring.041920.xlsx_with_dialog_acts.xlsx
@@ -585,12 +585,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1725,12 +1725,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2143,12 +2143,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2337,12 +2337,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3177,12 +3177,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3215,12 +3215,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3903,12 +3903,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4017,12 +4017,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4359,12 +4359,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4397,12 +4397,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4549,12 +4549,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4701,12 +4701,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4739,12 +4739,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4929,12 +4929,12 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5047,12 +5047,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5123,12 +5123,12 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5161,12 +5161,12 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5199,12 +5199,12 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5279,12 +5279,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5317,12 +5317,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5507,12 +5507,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5545,12 +5545,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5697,12 +5697,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6499,12 +6499,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6803,12 +6803,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6879,12 +6879,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7187,12 +7187,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7643,12 +7643,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7681,12 +7681,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8175,12 +8175,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9351,12 +9351,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9389,12 +9389,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9959,12 +9959,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10875,12 +10875,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11263,12 +11263,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12251,12 +12251,12 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12403,12 +12403,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12441,12 +12441,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -12517,12 +12517,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12555,12 +12555,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12631,12 +12631,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12669,12 +12669,12 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12745,12 +12745,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13167,12 +13167,12 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13205,12 +13205,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13243,12 +13243,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13471,12 +13471,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13509,12 +13509,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13547,12 +13547,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13623,12 +13623,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13813,12 +13813,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14045,12 +14045,12 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14197,12 +14197,12 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14235,12 +14235,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14273,12 +14273,12 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14311,12 +14311,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14387,12 +14387,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -15649,12 +15649,12 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15687,12 +15687,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16033,12 +16033,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16565,12 +16565,12 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16907,12 +16907,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16983,12 +16983,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17289,12 +17289,12 @@
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17365,12 +17365,12 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17669,12 +17669,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17935,12 +17935,12 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18011,12 +18011,12 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18581,12 +18581,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18771,12 +18771,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19455,12 +19455,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19835,12 +19835,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20025,12 +20025,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20215,12 +20215,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20253,12 +20253,12 @@
       <c r="H520" t="inlineStr"/>
       <c r="I520" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20405,12 +20405,12 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20557,12 +20557,12 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20633,12 +20633,12 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20671,12 +20671,12 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21469,12 +21469,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21583,12 +21583,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21735,12 +21735,12 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22039,12 +22039,12 @@
       <c r="H567" t="inlineStr"/>
       <c r="I567" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -22381,12 +22381,12 @@
       <c r="H576" t="inlineStr"/>
       <c r="I576" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22803,12 +22803,12 @@
       <c r="H587" t="inlineStr"/>
       <c r="I587" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22883,12 +22883,12 @@
       <c r="H589" t="inlineStr"/>
       <c r="I589" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23035,12 +23035,12 @@
       <c r="H593" t="inlineStr"/>
       <c r="I593" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23225,12 +23225,12 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23263,12 +23263,12 @@
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24955,12 +24955,12 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24993,12 +24993,12 @@
       <c r="H644" t="inlineStr"/>
       <c r="I644" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25069,12 +25069,12 @@
       <c r="H646" t="inlineStr"/>
       <c r="I646" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25107,12 +25107,12 @@
       <c r="H647" t="inlineStr"/>
       <c r="I647" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25145,12 +25145,12 @@
       <c r="H648" t="inlineStr"/>
       <c r="I648" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25715,12 +25715,12 @@
       <c r="H663" t="inlineStr"/>
       <c r="I663" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25981,12 +25981,12 @@
       </c>
       <c r="I670" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26057,12 +26057,12 @@
       <c r="H672" t="inlineStr"/>
       <c r="I672" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26589,12 +26589,12 @@
       <c r="H686" t="inlineStr"/>
       <c r="I686" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27045,12 +27045,12 @@
       <c r="H698" t="inlineStr"/>
       <c r="I698" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27121,12 +27121,12 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27197,12 +27197,12 @@
       <c r="H702" t="inlineStr"/>
       <c r="I702" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27395,12 +27395,12 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27737,12 +27737,12 @@
       <c r="H716" t="inlineStr"/>
       <c r="I716" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28003,12 +28003,12 @@
       <c r="H723" t="inlineStr"/>
       <c r="I723" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28079,12 +28079,12 @@
       <c r="H725" t="inlineStr"/>
       <c r="I725" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28117,12 +28117,12 @@
       <c r="H726" t="inlineStr"/>
       <c r="I726" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28231,12 +28231,12 @@
       </c>
       <c r="I729" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28345,12 +28345,12 @@
       <c r="H732" t="inlineStr"/>
       <c r="I732" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28687,12 +28687,12 @@
       </c>
       <c r="I741" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29151,12 +29151,12 @@
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29189,12 +29189,12 @@
       <c r="H754" t="inlineStr"/>
       <c r="I754" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29379,12 +29379,12 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29493,12 +29493,12 @@
       <c r="H762" t="inlineStr"/>
       <c r="I762" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29645,12 +29645,12 @@
       <c r="H766" t="inlineStr"/>
       <c r="I766" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30603,12 +30603,12 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J791" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
